--- a/metric_evaluation/results/sys_corr.xlsx
+++ b/metric_evaluation/results/sys_corr.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,74 +1367,74 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>questeval_score</t>
+          <t>qafacteval_score</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.4505494505494506</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>0.4505494505494506</v>
+        <v>0.4725274725274726</v>
       </c>
       <c r="D50" s="1" t="n">
-        <v>0.4861952656966503</v>
+        <v>0.5082950505010435</v>
       </c>
       <c r="E50" t="n">
-        <v>0.3314967720658979</v>
+        <v>0.2651974176527184</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>R1_F1</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>-0.1208791208791209</v>
-      </c>
-      <c r="C51" t="n">
-        <v>-0.2307692307692308</v>
-      </c>
-      <c r="D51" t="n">
-        <v>-0.2872972024571115</v>
+          <t>questeval_score</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>0.4285714285714285</v>
+      </c>
+      <c r="C51" s="1" t="n">
+        <v>0.4505494505494506</v>
+      </c>
+      <c r="D51" s="1" t="n">
+        <v>0.4861952656966503</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.0220997848043932</v>
+        <v>0.3314967720658979</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>R2_F1</t>
+          <t>R1_F1</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01098901098901099</v>
+        <v>-0.1208791208791209</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.05494505494505495</v>
+        <v>-0.2307692307692308</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1546984936307524</v>
+        <v>-0.2872972024571115</v>
       </c>
       <c r="E52" t="n">
-        <v>0.110498924021966</v>
+        <v>-0.0220997848043932</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>RL_F1</t>
+          <t>R2_F1</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.09890109890109891</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="C53" t="n">
-        <v>0.03296703296703297</v>
+        <v>-0.05494505494505495</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.06629935441317959</v>
+        <v>-0.1546984936307524</v>
       </c>
       <c r="E53" t="n">
         <v>0.110498924021966</v>
@@ -1443,228 +1443,285 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>s3_score_responsiveness</t>
+          <t>RL_F1</t>
         </is>
       </c>
       <c r="B54" t="n">
+        <v>0.09890109890109891</v>
+      </c>
+      <c r="C54" t="n">
         <v>0.03296703296703297</v>
       </c>
-      <c r="C54" t="n">
-        <v>0.01098901098901099</v>
-      </c>
       <c r="D54" t="n">
-        <v>-0.04419956960878639</v>
+        <v>-0.06629935441317959</v>
       </c>
       <c r="E54" t="n">
-        <v>0.04419956960878639</v>
+        <v>0.110498924021966</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>s3_score_pyramid</t>
+          <t>s3_score_responsiveness</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.1208791208791209</v>
+        <v>0.03296703296703297</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.1428571428571428</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1988980632395388</v>
+        <v>-0.04419956960878639</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.110498924021966</v>
+        <v>0.04419956960878639</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sms_elmo</t>
+          <t>s3_score_pyramid</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2307692307692308</v>
+        <v>-0.1208791208791209</v>
       </c>
       <c r="C56" t="n">
-        <v>0.2967032967032967</v>
+        <v>-0.1428571428571428</v>
       </c>
       <c r="D56" t="n">
-        <v>0.2651974176527184</v>
+        <v>-0.1988980632395388</v>
       </c>
       <c r="E56" t="n">
-        <v>0.3535965568702911</v>
+        <v>-0.110498924021966</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>sms_glove</t>
+          <t>sms_elmo</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2747252747252747</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2527472527472528</v>
+        <v>0.2967032967032967</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3756963416746844</v>
+        <v>0.2651974176527184</v>
       </c>
       <c r="E57" t="n">
-        <v>0.3093969872615048</v>
+        <v>0.3535965568702911</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>summa_qa_score_avg_prob</t>
-        </is>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>0.5824175824175825</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>0.6043956043956044</v>
-      </c>
-      <c r="D58" s="2" t="n">
-        <v>0.6850933289361891</v>
-      </c>
-      <c r="E58" s="1" t="n">
-        <v>0.4419956960878639</v>
+          <t>sms_glove</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.2527472527472528</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.3756963416746844</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.3093969872615048</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>summa_qa_score_avg_fscore</t>
-        </is>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>0.5604395604395604</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>0.5824175824175825</v>
-      </c>
-      <c r="D59" s="2" t="n">
-        <v>0.6629935441317959</v>
+          <t>summac_score_snt</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.1868131868131868</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.1648351648351649</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.220997848043932</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3756963416746844</v>
+        <v>-0.04419956960878639</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>supert_score</t>
-        </is>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>0.5384615384615384</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>0.5604395604395604</v>
-      </c>
-      <c r="D60" s="2" t="n">
-        <v>0.5966941897186163</v>
-      </c>
-      <c r="E60" s="1" t="n">
+          <t>summac_score_doc</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.2967032967032967</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.2747252747252747</v>
+      </c>
+      <c r="D60" s="1" t="n">
         <v>0.3977961264790775</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.110498924021966</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ter_score</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.1208791208791209</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.09890109890109891</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.1767982784351456</v>
-      </c>
-      <c r="E61" t="n">
-        <v>-0.06629935441317959</v>
+          <t>summa_qa_score_avg_prob</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="n">
+        <v>0.5824175824175825</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>0.6043956043956044</v>
+      </c>
+      <c r="D61" s="2" t="n">
+        <v>0.6850933289361891</v>
+      </c>
+      <c r="E61" s="1" t="n">
+        <v>0.4419956960878639</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>asp_rel</t>
+          <t>summa_qa_score_avg_fscore</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.5824175824175825</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>0.8176920377625482</v>
-      </c>
-      <c r="E62" s="2" t="n">
-        <v>0.7071931137405822</v>
+        <v>0.6629935441317959</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.3756963416746844</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>self_coh</t>
+          <t>supert_score</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.8461538461538461</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>1</v>
+        <v>0.5604395604395604</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>0.8397918225669414</v>
-      </c>
-      <c r="E63" s="2" t="n">
-        <v>0.7071931137405822</v>
+        <v>0.5966941897186163</v>
+      </c>
+      <c r="E63" s="1" t="n">
+        <v>0.3977961264790775</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>sent_con</t>
-        </is>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>0.8176920377625482</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>0.8397918225669414</v>
-      </c>
-      <c r="D64" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E64" s="2" t="n">
-        <v>0.6333333333333333</v>
+          <t>ter_score</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1208791208791209</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.09890109890109891</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.1767982784351456</v>
+      </c>
+      <c r="E64" t="n">
+        <v>-0.06629935441317959</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>asp_rel</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="D65" s="2" t="n">
+        <v>0.8176920377625482</v>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>0.7071931137405822</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>self_coh</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" s="2" t="n">
+        <v>0.8397918225669414</v>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>0.7071931137405822</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>sent_con</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="n">
+        <v>0.8176920377625482</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>0.8397918225669414</v>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>0.6333333333333333</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>readblty</t>
         </is>
       </c>
-      <c r="B65" s="2" t="n">
+      <c r="B68" s="2" t="n">
         <v>0.7071931137405822</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C68" s="2" t="n">
         <v>0.7071931137405822</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D68" s="2" t="n">
         <v>0.6333333333333333</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E68" s="2" t="n">
         <v>1</v>
       </c>
     </row>
